--- a/wcht.xlsx
+++ b/wcht.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,12 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="560">
   <si>
     <t>微信号</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>最新微信号</t>
     </r>
     <r>
@@ -64,16 +69,16 @@
     </r>
   </si>
   <si>
+    <t>昵称</t>
+  </si>
+  <si>
     <t>备注名称</t>
   </si>
   <si>
-    <t>昵称</t>
-  </si>
-  <si>
     <t>标签</t>
   </si>
   <si>
-    <t>备注电话</t>
+    <t>电话</t>
   </si>
   <si>
     <t>省份</t>
@@ -88,24 +93,24 @@
     <t>wxid_pv55fkr18gb621</t>
   </si>
   <si>
+    <t>AA强仔</t>
+  </si>
+  <si>
     <t>龙福超市</t>
   </si>
   <si>
-    <t>AA强仔</t>
-  </si>
-  <si>
     <t>hgz131838</t>
   </si>
   <si>
     <t>gzgz6857M</t>
   </si>
   <si>
+    <t>9胖虎</t>
+  </si>
+  <si>
     <t>青年旅舍 九868</t>
   </si>
   <si>
-    <t>9胖虎</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -118,12 +123,12 @@
     <t>AnYooo000</t>
   </si>
   <si>
+    <t>AnYooo</t>
+  </si>
+  <si>
     <t>Healer于洋</t>
   </si>
   <si>
-    <t>AnYooo</t>
-  </si>
-  <si>
     <t>北京</t>
   </si>
   <si>
@@ -157,12 +162,12 @@
     <t>ceciliajoyful</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
     <t>美国 CC</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>New Jersey</t>
   </si>
   <si>
@@ -217,12 +222,12 @@
     <t>muziruyuan2022</t>
   </si>
   <si>
+    <t>Hello！👸🏻Li漂亮</t>
+  </si>
+  <si>
     <t>新疆一汽配室友</t>
   </si>
   <si>
-    <t>Hello！👸🏻Li漂亮</t>
-  </si>
-  <si>
     <t>新疆</t>
   </si>
   <si>
@@ -235,12 +240,12 @@
     <t>SDM0543</t>
   </si>
   <si>
+    <t>JQKA</t>
+  </si>
+  <si>
     <t>北京青旅 涛🍂</t>
   </si>
   <si>
-    <t>JQKA</t>
-  </si>
-  <si>
     <t>wxid_t93f73d57mhl22-北京青旅 涛🍂</t>
   </si>
   <si>
@@ -280,10 +285,10 @@
     <t>monavan</t>
   </si>
   <si>
+    <t>MonaUnderwood🌟</t>
+  </si>
+  <si>
     <t>Astrophile🌟</t>
-  </si>
-  <si>
-    <t>MonaUnderwood🌟</t>
   </si>
   <si>
     <t>British Columbia</t>
@@ -331,12 +336,12 @@
     <t>zang_wang444</t>
   </si>
   <si>
+    <t>Sri Ananda Parashakti</t>
+  </si>
+  <si>
     <t>uu王宥証</t>
   </si>
   <si>
-    <t>Sri Ananda Parashakti</t>
-  </si>
-  <si>
     <t>Taipei</t>
   </si>
   <si>
@@ -373,12 +378,12 @@
     <t>fandexy</t>
   </si>
   <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>v钱氏医院病友</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>河南</t>
   </si>
   <si>
@@ -403,12 +408,12 @@
     <t>wxid_n69ey26nx8tq21</t>
   </si>
   <si>
+    <t>YuYonghao</t>
+  </si>
+  <si>
     <t>于勇浩YuYonghao</t>
   </si>
   <si>
-    <t>YuYonghao</t>
-  </si>
-  <si>
     <t>13691270170</t>
   </si>
   <si>
@@ -421,7 +426,7 @@
     <t>a18322234734</t>
   </si>
   <si>
-    <t> 心净自然凉</t>
+    <t>心净自然凉</t>
   </si>
   <si>
     <t>附体</t>
@@ -442,12 +447,38 @@
     <t>jie2585054990</t>
   </si>
   <si>
-    <t>衣服店 吖～我是冯筱洁吖👧</t>
-  </si>
-  <si>
     <t>吖～我是冯筱洁吖👧</t>
   </si>
   <si>
+    <r>
+      <t>衣服店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吖～我是冯筱洁吖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>👧</t>
+    </r>
+  </si>
+  <si>
     <t>wxid_shr3v5mq77wp21-衣服店 吖～我是冯筱洁吖👧</t>
   </si>
   <si>
@@ -493,12 +524,12 @@
     <t>qs-xym</t>
   </si>
   <si>
+    <t>布偶 | 单身活动管家</t>
+  </si>
+  <si>
     <t>布偶  单身活动管家</t>
   </si>
   <si>
-    <t>布偶 | 单身活动管家</t>
-  </si>
-  <si>
     <t>wxid_wzmtwbv87igm22-布偶  单身活动管家</t>
   </si>
   <si>
@@ -511,6 +542,9 @@
     <t>步步为赢</t>
   </si>
   <si>
+    <t>位行盈</t>
+  </si>
+  <si>
     <t>wxid_7266572666214-步步为赢</t>
   </si>
   <si>
@@ -532,24 +566,24 @@
     <t>yinianzhiji8866</t>
   </si>
   <si>
+    <t>晨</t>
+  </si>
+  <si>
     <t>陈晨 镜花水月</t>
   </si>
   <si>
-    <t>晨</t>
-  </si>
-  <si>
     <t>wxid_t9n6kq8uznyd12-陈晨 镜花水月</t>
   </si>
   <si>
     <t>wxid_euft89lqhrpt22</t>
   </si>
   <si>
+    <t>持之以恒</t>
+  </si>
+  <si>
     <t>慧德刘伟明</t>
   </si>
   <si>
-    <t>持之以恒</t>
-  </si>
-  <si>
     <t>公司</t>
   </si>
   <si>
@@ -595,12 +629,12 @@
     <t>lz13522204199</t>
   </si>
   <si>
+    <t>读你</t>
+  </si>
+  <si>
     <t>青海 北新桥拌面 读你</t>
   </si>
   <si>
-    <t>读你</t>
-  </si>
-  <si>
     <t>13522204199</t>
   </si>
   <si>
@@ -628,12 +662,12 @@
     <t>wxid_7hd8307735cc22</t>
   </si>
   <si>
-    <t>孙立旗 风生水起</t>
-  </si>
-  <si>
     <t>风生水起</t>
   </si>
   <si>
+    <t>孙立旗</t>
+  </si>
+  <si>
     <t>财贸</t>
   </si>
   <si>
@@ -655,12 +689,30 @@
     <t>gj18247847096</t>
   </si>
   <si>
-    <t>郭俊 银谷</t>
-  </si>
-  <si>
     <t>郭俊</t>
   </si>
   <si>
+    <r>
+      <t>郭俊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银谷</t>
+    </r>
+  </si>
+  <si>
     <t>包头</t>
   </si>
   <si>
@@ -673,12 +725,12 @@
     <t>wgbeautifullife</t>
   </si>
   <si>
+    <t>国曌</t>
+  </si>
+  <si>
     <t>杨艳丽 代理记账 13371628082</t>
   </si>
   <si>
-    <t>国曌</t>
-  </si>
-  <si>
     <t>左家庄</t>
   </si>
   <si>
@@ -706,12 +758,12 @@
     <t>Wwwwwxy_1998</t>
   </si>
   <si>
+    <t>好好减肥</t>
+  </si>
+  <si>
     <t>syon魏星宇</t>
   </si>
   <si>
-    <t>好好减肥</t>
-  </si>
-  <si>
     <t>泸州</t>
   </si>
   <si>
@@ -733,12 +785,12 @@
     <t>huchenghunlian88</t>
   </si>
   <si>
+    <t>湖城婚恋</t>
+  </si>
+  <si>
     <t>湖城婚恋 魂钱</t>
   </si>
   <si>
-    <t>湖城婚恋</t>
-  </si>
-  <si>
     <t>wxid_5igxas8y37pq22-湖城婚恋 魂钱</t>
   </si>
   <si>
@@ -760,12 +812,12 @@
     <t>liqichen001</t>
   </si>
   <si>
+    <t>拘谨の小凤凰</t>
+  </si>
+  <si>
     <t>李晓光 拘谨の小凤凰</t>
   </si>
   <si>
-    <t>拘谨の小凤凰</t>
-  </si>
-  <si>
     <t>同学</t>
   </si>
   <si>
@@ -778,9 +830,6 @@
     <t>空有一丝愁</t>
   </si>
   <si>
-    <t>同学|财贸</t>
-  </si>
-  <si>
     <t>13633282340</t>
   </si>
   <si>
@@ -793,6 +842,9 @@
     <t>快乐的鱼🐠</t>
   </si>
   <si>
+    <t>王太国</t>
+  </si>
+  <si>
     <t>中程宇</t>
   </si>
   <si>
@@ -805,12 +857,12 @@
     <t>W280286</t>
   </si>
   <si>
+    <t>老公鸡</t>
+  </si>
+  <si>
     <t>Orgasan</t>
   </si>
   <si>
-    <t>老公鸡</t>
-  </si>
-  <si>
     <t>恒</t>
   </si>
   <si>
@@ -820,10 +872,19 @@
     <t>z18531553876</t>
   </si>
   <si>
+    <t>幸福时光</t>
+  </si>
+  <si>
     <t>Orgeinsa</t>
   </si>
   <si>
-    <t>幸福时光</t>
+    <t>wzx567106</t>
+  </si>
+  <si>
+    <t>五只羊</t>
+  </si>
+  <si>
+    <t>书术</t>
   </si>
   <si>
     <t>liyilong2010</t>
@@ -832,12 +893,12 @@
     <t>wei478203997</t>
   </si>
   <si>
+    <t>李易龙</t>
+  </si>
+  <si>
     <t>石家庄 李易龙</t>
   </si>
   <si>
-    <t>李易龙</t>
-  </si>
-  <si>
     <t>石家庄</t>
   </si>
   <si>
@@ -859,12 +920,12 @@
     <t>xiaobudianshasha</t>
   </si>
   <si>
+    <t>领悟</t>
+  </si>
+  <si>
     <t>领悟 涿州电脑</t>
   </si>
   <si>
-    <t>领悟</t>
-  </si>
-  <si>
     <t>保定</t>
   </si>
   <si>
@@ -880,6 +941,27 @@
     <t>刘永山-北京中财会计服务</t>
   </si>
   <si>
+    <r>
+      <t>刘永山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京中财会计服务</t>
+    </r>
+  </si>
+  <si>
     <t>wxid_nnqzzz91g6xr22-刘永山-北京中财会计服务</t>
   </si>
   <si>
@@ -919,12 +1001,12 @@
     <t>rangwobaohuni002</t>
   </si>
   <si>
+    <t>罗林平(新房团购+全市二手房)</t>
+  </si>
+  <si>
     <t>房产中介 罗林平</t>
   </si>
   <si>
-    <t>罗林平(新房团购+全市二手房)</t>
-  </si>
-  <si>
     <t>rangwobaohuni002-房产中介 罗林平</t>
   </si>
   <si>
@@ -940,12 +1022,12 @@
     <t>xuan1041079093</t>
   </si>
   <si>
+    <t>毛毛</t>
+  </si>
+  <si>
     <t>足疗姐姐</t>
   </si>
   <si>
-    <t>毛毛</t>
-  </si>
-  <si>
     <t>xuan1041079093-足疗姐姐</t>
   </si>
   <si>
@@ -955,12 +1037,12 @@
     <t>m13833862325</t>
   </si>
   <si>
+    <t>梦在远方</t>
+  </si>
+  <si>
     <t>马刚 梦在远方</t>
   </si>
   <si>
-    <t>梦在远方</t>
-  </si>
-  <si>
     <t>wxid_jtel8kwm91h521-马刚 梦在远方</t>
   </si>
   <si>
@@ -979,12 +1061,12 @@
     <t>S290808398</t>
   </si>
   <si>
+    <t>木无心</t>
+  </si>
+  <si>
     <t>金松 木无心</t>
   </si>
   <si>
-    <t>木无心</t>
-  </si>
-  <si>
     <t>wxid_s3kmif9nqvs722-金松 木无心</t>
   </si>
   <si>
@@ -1033,12 +1115,12 @@
     <t>qi13699394354</t>
   </si>
   <si>
+    <t>祁勃</t>
+  </si>
+  <si>
     <t>齐博</t>
   </si>
   <si>
-    <t>祁勃</t>
-  </si>
-  <si>
     <t>wxid_1593885938812-齐博</t>
   </si>
   <si>
@@ -1099,12 +1181,12 @@
     <t>wxid_wtkpfvhmob522</t>
   </si>
   <si>
+    <t>速达修15650598193</t>
+  </si>
+  <si>
     <t>速达修电脑15650598193</t>
   </si>
   <si>
-    <t>速达修15650598193</t>
-  </si>
-  <si>
     <t>涿州</t>
   </si>
   <si>
@@ -1120,12 +1202,12 @@
     <t>shanren1110</t>
   </si>
   <si>
+    <t>陶晴贤</t>
+  </si>
+  <si>
     <t>陶晴贤 刘永山亲戚</t>
   </si>
   <si>
-    <t>陶晴贤</t>
-  </si>
-  <si>
     <t>唐山</t>
   </si>
   <si>
@@ -1135,12 +1217,12 @@
     <t>HAILUN812939636</t>
   </si>
   <si>
+    <t>特伦苏</t>
+  </si>
+  <si>
     <t>苏安石 理发</t>
   </si>
   <si>
-    <t>特伦苏</t>
-  </si>
-  <si>
     <t>HAILUN812939636-苏安石 理发</t>
   </si>
   <si>
@@ -1174,12 +1256,12 @@
     <t>WJT2022777</t>
   </si>
   <si>
+    <t>王江涛</t>
+  </si>
+  <si>
     <t>青年旅舍 王江涛</t>
   </si>
   <si>
-    <t>王江涛</t>
-  </si>
-  <si>
     <t>三门峡</t>
   </si>
   <si>
@@ -1192,12 +1274,12 @@
     <t>w2642w</t>
   </si>
   <si>
+    <t>王伟13171695387</t>
+  </si>
+  <si>
     <t>仙 物理茶 express</t>
   </si>
   <si>
-    <t>王伟13171695387</t>
-  </si>
-  <si>
     <t>快递</t>
   </si>
   <si>
@@ -1222,10 +1304,10 @@
     <t>Money_never_sleep_s</t>
   </si>
   <si>
+    <t>我叫何小苗～🎈</t>
+  </si>
+  <si>
     <t>新疆 何苗 April i am～🎈</t>
-  </si>
-  <si>
-    <t>我叫何小苗～🎈</t>
   </si>
   <si>
     <t>qq356728297-新疆 何苗 April i am～🎈</t>
@@ -1306,12 +1388,12 @@
     <t>qq1556190248</t>
   </si>
   <si>
-    <t>亚楠 小猴子</t>
-  </si>
-  <si>
     <t>小猴子</t>
   </si>
   <si>
+    <t>亚楠</t>
+  </si>
+  <si>
     <t>甘肃</t>
   </si>
   <si>
@@ -1330,24 +1412,30 @@
     <t>meina521-心存善念</t>
   </si>
   <si>
+    <t>wzc087180</t>
+  </si>
+  <si>
+    <t>玄武道长</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>寿光</t>
+  </si>
+  <si>
     <t>tangyanqing6179</t>
   </si>
   <si>
+    <t>心灵灯塔--转运堂</t>
+  </si>
+  <si>
     <t>寿光 心灵灯塔--转运堂</t>
   </si>
   <si>
-    <t>心灵灯塔--转运堂</t>
-  </si>
-  <si>
-    <t>山东 附体</t>
-  </si>
-  <si>
     <t>17353696655</t>
   </si>
   <si>
-    <t>山东</t>
-  </si>
-  <si>
     <t>潍坊</t>
   </si>
   <si>
@@ -1447,12 +1535,12 @@
     <t>wx2272020188</t>
   </si>
   <si>
+    <t>余生不将就</t>
+  </si>
+  <si>
     <t>西脑包 余生不将就</t>
   </si>
   <si>
-    <t>余生不将就</t>
-  </si>
-  <si>
     <t>Kildare</t>
   </si>
   <si>
@@ -1465,12 +1553,12 @@
     <t>wrc198709</t>
   </si>
   <si>
+    <t>遇见你小丽</t>
+  </si>
+  <si>
     <t>联谊会 遇见你小丽老师</t>
   </si>
   <si>
-    <t>遇见你小丽</t>
-  </si>
-  <si>
     <t>wxid_3vzfmzx4bxn712-联谊会 遇见你小丽老师</t>
   </si>
   <si>
@@ -1480,12 +1568,12 @@
     <t>szw03123002</t>
   </si>
   <si>
+    <t>志诚载物</t>
+  </si>
+  <si>
     <t>涿州 厚德载物</t>
   </si>
   <si>
-    <t>志诚载物</t>
-  </si>
-  <si>
     <t>wxid_e10lfcnyo0tk22-涿州 厚德载物</t>
   </si>
   <si>
@@ -1525,12 +1613,12 @@
     <t>yulei13731691167</t>
   </si>
   <si>
+    <t>涿州八秒开锁:13731691167</t>
+  </si>
+  <si>
     <t>涿州八秒开锁13731691167</t>
   </si>
   <si>
-    <t>涿州八秒开锁:13731691167</t>
-  </si>
-  <si>
     <t>qq31328620-涿州八秒开锁13731691167</t>
   </si>
   <si>
@@ -1564,22 +1652,197 @@
     <t>shi13366771103</t>
   </si>
   <si>
+    <t>阿虎</t>
+  </si>
+  <si>
     <t>时于成</t>
   </si>
   <si>
-    <t>阿虎</t>
-  </si>
-  <si>
     <t>bjy15311191358</t>
   </si>
   <si>
+    <t>七座商务旅游会议包车</t>
+  </si>
+  <si>
     <t>毕京勇</t>
   </si>
   <si>
-    <t>七座商务旅游会议包车</t>
-  </si>
-  <si>
     <t>董波</t>
+  </si>
+  <si>
+    <t>镜花水月</t>
+  </si>
+  <si>
+    <t>晨晨</t>
+  </si>
+  <si>
+    <t>wxid_z59yv8ik7k9722</t>
+  </si>
+  <si>
+    <t>玄灵子</t>
+  </si>
+  <si>
+    <t>赤焰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤峰 </t>
+  </si>
+  <si>
+    <t>范从从</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 朝阳</t>
+  </si>
+  <si>
+    <t>bjxiaopang</t>
+  </si>
+  <si>
+    <t>胖小墩</t>
+  </si>
+  <si>
+    <t>董浩</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>F342440920</t>
+  </si>
+  <si>
+    <t>冯洋</t>
+  </si>
+  <si>
+    <t>gzc13931829598</t>
+  </si>
+  <si>
+    <t>贡子成</t>
+  </si>
+  <si>
+    <t>PZ-lawyer</t>
+  </si>
+  <si>
+    <t>极速法务</t>
+  </si>
+  <si>
+    <t>黄会款</t>
+  </si>
+  <si>
+    <t>lx364336607</t>
+  </si>
+  <si>
+    <t>刘兴</t>
+  </si>
+  <si>
+    <t>鄂尔多斯</t>
+  </si>
+  <si>
+    <t>wxid_9m0tnav9n0g922</t>
+  </si>
+  <si>
+    <t>路虎</t>
+  </si>
+  <si>
+    <t>panyulong3011</t>
+  </si>
+  <si>
+    <t>潘雨龙</t>
+  </si>
+  <si>
+    <t>wxid_bcm0o6tr2u0622</t>
+  </si>
+  <si>
+    <t>清凉圣境</t>
+  </si>
+  <si>
+    <t>wxid_80abw3hexezj12</t>
+  </si>
+  <si>
+    <t>永远</t>
+  </si>
+  <si>
+    <t>孙振磊</t>
+  </si>
+  <si>
+    <t>bsje1204</t>
+  </si>
+  <si>
+    <t>筛网</t>
+  </si>
+  <si>
+    <t>王明</t>
+  </si>
+  <si>
+    <t>乌海</t>
+  </si>
+  <si>
+    <t>wrq13363328581</t>
+  </si>
+  <si>
+    <r>
+      <t>瑞琪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wrq</t>
+    </r>
+  </si>
+  <si>
+    <t>w15531889300</t>
+  </si>
+  <si>
+    <t>兴威消防</t>
+  </si>
+  <si>
+    <t>王铮</t>
+  </si>
+  <si>
+    <t>yangmaojian666</t>
+  </si>
+  <si>
+    <t>杨茂建</t>
+  </si>
+  <si>
+    <t>yaoxia13663281988</t>
+  </si>
+  <si>
+    <t>姚夏天</t>
+  </si>
+  <si>
+    <t>Robin--Ning</t>
+  </si>
+  <si>
+    <t>征途彬</t>
+  </si>
+  <si>
+    <t>宁彦彬</t>
+  </si>
+  <si>
+    <t>西城</t>
+  </si>
+  <si>
+    <t>ZhongCai_Finance</t>
+  </si>
+  <si>
+    <t>中财财务</t>
+  </si>
+  <si>
+    <t>王震宇</t>
+  </si>
+  <si>
+    <t>Hong Kong Yau Tsim Mong</t>
+  </si>
+  <si>
+    <t>yqyjdszhdap</t>
+  </si>
+  <si>
+    <t>江水面朋友*^_^*</t>
+  </si>
+  <si>
+    <t>山西</t>
   </si>
 </sst>
 </file>
@@ -2739,10 +3002,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2750,7 +3015,8 @@
     <col min="1" max="1" width="23.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="24.4545454545455" customWidth="1"/>
     <col min="3" max="4" width="36.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="12.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="10.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="11.5454545454545" customWidth="1"/>
     <col min="9" max="9" width="8.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2770,7 +3036,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -3013,14 +3279,12 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -3326,10 +3590,10 @@
       <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E21" t="s">
@@ -3358,7 +3622,7 @@
       <c r="C22" t="s">
         <v>123</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E22" t="s">
@@ -3503,8 +3767,8 @@
       <c r="C27" t="s">
         <v>145</v>
       </c>
-      <c r="D27" t="s">
-        <v>145</v>
+      <c r="D27" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -3519,21 +3783,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -3548,21 +3812,21 @@
         <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -3577,27 +3841,27 @@
         <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
@@ -3606,21 +3870,21 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -3635,21 +3899,21 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -3658,56 +3922,56 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
         <v>117</v>
@@ -3722,82 +3986,82 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" t="s">
         <v>186</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" t="s">
         <v>195</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G36" t="s">
         <v>95</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -3809,21 +4073,21 @@
         <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -3835,24 +4099,24 @@
         <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -3861,27 +4125,27 @@
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -3890,27 +4154,27 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -3919,27 +4183,27 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -3951,65 +4215,65 @@
         <v>95</v>
       </c>
       <c r="H42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" t="s">
         <v>235</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F44" t="s">
         <v>236</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I44" t="s">
         <v>237</v>
@@ -4025,11 +4289,11 @@
       <c r="C45" t="s">
         <v>239</v>
       </c>
-      <c r="D45" t="s">
-        <v>239</v>
+      <c r="D45" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -4041,90 +4305,78 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>251</v>
-      </c>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" t="s">
         <v>252</v>
       </c>
       <c r="C48" t="s">
         <v>253</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H48" t="s">
-        <v>255</v>
-      </c>
-      <c r="I48" t="s">
-        <v>256</v>
+      <c r="E48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" t="s">
         <v>257</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s">
-        <v>258</v>
       </c>
       <c r="D49" t="s">
         <v>258</v>
@@ -4136,68 +4388,68 @@
         <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>262</v>
       </c>
       <c r="D50" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
         <v>263</v>
-      </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" t="s">
-        <v>264</v>
-      </c>
-      <c r="I50" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
         <v>266</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>267</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" t="s">
         <v>268</v>
-      </c>
-      <c r="D51" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s">
-        <v>45</v>
       </c>
       <c r="I51" t="s">
         <v>269</v>
@@ -4208,13 +4460,13 @@
         <v>270</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -4223,27 +4475,27 @@
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E53" t="s">
         <v>16</v>
@@ -4252,27 +4504,27 @@
         <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="H53" t="s">
         <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
@@ -4281,30 +4533,30 @@
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D55" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -4313,76 +4565,76 @@
         <v>55</v>
       </c>
       <c r="H55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="I56" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>294</v>
@@ -4391,16 +4643,16 @@
         <v>295</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="H58" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="I58" t="s">
         <v>296</v>
@@ -4411,54 +4663,54 @@
         <v>297</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D59" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I59" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D60" t="s">
         <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
         <v>304</v>
@@ -4475,19 +4727,19 @@
         <v>307</v>
       </c>
       <c r="D61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="H61" t="s">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="I61" t="s">
         <v>309</v>
@@ -4498,13 +4750,13 @@
         <v>310</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="C62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -4513,27 +4765,27 @@
         <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I62" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -4542,10 +4794,10 @@
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="I63" t="s">
         <v>317</v>
@@ -4562,19 +4814,19 @@
         <v>320</v>
       </c>
       <c r="D64" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
         <v>321</v>
-      </c>
-      <c r="E64" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" t="s">
-        <v>207</v>
       </c>
       <c r="I64" t="s">
         <v>322</v>
@@ -4591,36 +4843,36 @@
         <v>325</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -4635,79 +4887,79 @@
         <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D68" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D69" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -4722,73 +4974,73 @@
         <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>343</v>
       </c>
       <c r="C70" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="E70" t="s">
-        <v>344</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
         <v>345</v>
-      </c>
-      <c r="H70" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
         <v>347</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>348</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>349</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
         <v>350</v>
       </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>189</v>
-      </c>
       <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
         <v>351</v>
-      </c>
-      <c r="I71" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" t="s">
         <v>353</v>
-      </c>
-      <c r="B72" t="s">
-        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>354</v>
@@ -4803,56 +5055,56 @@
         <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="I72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>359</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E73" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D74" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E74" t="s">
         <v>117</v>
@@ -4867,105 +5119,105 @@
         <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B75" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
         <v>368</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="H75" t="s">
+        <v>66</v>
+      </c>
+      <c r="I75" t="s">
         <v>369</v>
-      </c>
-      <c r="I75" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
+        <v>370</v>
+      </c>
+      <c r="B76" t="s">
         <v>371</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>372</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>373</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" t="s">
         <v>374</v>
       </c>
-      <c r="E76" t="s">
+      <c r="I76" t="s">
         <v>375</v>
-      </c>
-      <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" t="s">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
+        <v>376</v>
+      </c>
+      <c r="B77" t="s">
         <v>377</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>378</v>
-      </c>
-      <c r="C77" t="s">
-        <v>379</v>
       </c>
       <c r="D77" t="s">
         <v>379</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>380</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B78" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D78" t="s">
         <v>384</v>
@@ -4977,10 +5229,10 @@
         <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I78" t="s">
         <v>385</v>
@@ -4991,16 +5243,16 @@
         <v>386</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>387</v>
       </c>
       <c r="C79" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D79" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -5009,85 +5261,85 @@
         <v>55</v>
       </c>
       <c r="H79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I79" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B80" t="s">
-        <v>390</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F80" t="s">
-        <v>392</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" t="s">
+        <v>208</v>
+      </c>
+      <c r="I80" t="s">
         <v>393</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I80" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
+        <v>394</v>
+      </c>
+      <c r="B81" t="s">
+        <v>395</v>
+      </c>
+      <c r="C81" t="s">
         <v>396</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
         <v>397</v>
       </c>
-      <c r="C81" t="s">
+      <c r="G81" t="s">
         <v>398</v>
       </c>
-      <c r="D81" t="s">
-        <v>398</v>
-      </c>
-      <c r="E81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>55</v>
-      </c>
-      <c r="H81" t="s">
-        <v>207</v>
+      <c r="H81" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="I81" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B82" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
@@ -5096,54 +5348,54 @@
         <v>55</v>
       </c>
       <c r="H82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I82" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C83" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D83" t="s">
         <v>407</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" t="s">
+        <v>208</v>
+      </c>
+      <c r="I83" t="s">
         <v>408</v>
-      </c>
-      <c r="H83" t="s">
-        <v>409</v>
-      </c>
-      <c r="I83" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
+        <v>409</v>
+      </c>
+      <c r="B84" t="s">
+        <v>410</v>
+      </c>
+      <c r="C84" t="s">
         <v>411</v>
       </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D84" t="s">
-        <v>412</v>
-      </c>
       <c r="E84" t="s">
         <v>16</v>
       </c>
@@ -5151,528 +5403,912 @@
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>65</v>
+        <v>413</v>
       </c>
       <c r="H84" t="s">
-        <v>66</v>
+        <v>414</v>
       </c>
       <c r="I84" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D85" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E85" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H85" t="s">
+        <v>66</v>
+      </c>
+      <c r="I85" t="s">
         <v>418</v>
       </c>
-      <c r="G85" t="s">
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
         <v>419</v>
       </c>
-      <c r="H85" t="s">
+      <c r="C86" t="s">
         <v>420</v>
       </c>
-      <c r="I85" t="s">
+      <c r="F86">
+        <v>15269633693</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" t="s">
+      <c r="H86" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B86" t="s">
-        <v>423</v>
-      </c>
-      <c r="C86" t="s">
-        <v>424</v>
-      </c>
-      <c r="D86" t="s">
-        <v>424</v>
-      </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>55</v>
-      </c>
-      <c r="H86" t="s">
-        <v>207</v>
-      </c>
-      <c r="I86" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>423</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" t="s">
+        <v>425</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87" t="s">
         <v>426</v>
       </c>
-      <c r="B87" t="s">
+      <c r="G87" t="s">
+        <v>421</v>
+      </c>
+      <c r="H87" t="s">
         <v>427</v>
       </c>
-      <c r="C87" t="s">
+      <c r="I87" t="s">
         <v>428</v>
-      </c>
-      <c r="D87" t="s">
-        <v>428</v>
-      </c>
-      <c r="E87" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
+        <v>429</v>
+      </c>
+      <c r="B88" t="s">
         <v>430</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>431</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>431</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" t="s">
+        <v>208</v>
+      </c>
+      <c r="I88" t="s">
         <v>432</v>
-      </c>
-      <c r="D88" t="s">
-        <v>432</v>
-      </c>
-      <c r="E88" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
+        <v>433</v>
+      </c>
+      <c r="B89" t="s">
         <v>434</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>435</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>435</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
         <v>436</v>
       </c>
-      <c r="D89" t="s">
-        <v>436</v>
-      </c>
-      <c r="E89" t="s">
-        <v>196</v>
-      </c>
-      <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>95</v>
-      </c>
-      <c r="H89" t="s">
-        <v>196</v>
-      </c>
-      <c r="I89" t="s">
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
         <v>438</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>439</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>439</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
         <v>440</v>
-      </c>
-      <c r="D90" t="s">
-        <v>440</v>
-      </c>
-      <c r="E90" t="s">
-        <v>117</v>
-      </c>
-      <c r="F90" t="s">
-        <v>441</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" t="s">
-        <v>16</v>
-      </c>
-      <c r="J90" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" t="s">
+        <v>442</v>
+      </c>
+      <c r="C91" t="s">
         <v>443</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
+        <v>443</v>
+      </c>
+      <c r="E91" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>95</v>
+      </c>
+      <c r="H91" t="s">
+        <v>197</v>
+      </c>
+      <c r="I91" t="s">
         <v>444</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
         <v>445</v>
       </c>
-      <c r="D91" t="s">
-        <v>445</v>
-      </c>
-      <c r="E91" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>55</v>
-      </c>
-      <c r="H91" t="s">
-        <v>207</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="B92" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
+      <c r="C92" t="s">
         <v>447</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
+        <v>447</v>
+      </c>
+      <c r="E92" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" t="s">
         <v>448</v>
       </c>
-      <c r="C92" t="s">
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
         <v>449</v>
-      </c>
-      <c r="D92" t="s">
-        <v>449</v>
-      </c>
-      <c r="E92" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H92" t="s">
-        <v>190</v>
-      </c>
-      <c r="I92" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" t="s">
         <v>451</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>452</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>452</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>55</v>
+      </c>
+      <c r="H93" t="s">
+        <v>208</v>
+      </c>
+      <c r="I93" t="s">
         <v>453</v>
-      </c>
-      <c r="D93" t="s">
-        <v>454</v>
-      </c>
-      <c r="E93" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>455</v>
-      </c>
-      <c r="H93" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
+        <v>454</v>
+      </c>
+      <c r="B94" t="s">
+        <v>455</v>
+      </c>
+      <c r="C94" t="s">
+        <v>456</v>
+      </c>
+      <c r="D94" t="s">
+        <v>456</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>190</v>
+      </c>
+      <c r="H94" t="s">
+        <v>191</v>
+      </c>
+      <c r="I94" t="s">
         <v>457</v>
-      </c>
-      <c r="B94" t="s">
-        <v>458</v>
-      </c>
-      <c r="C94" t="s">
-        <v>459</v>
-      </c>
-      <c r="D94" t="s">
-        <v>460</v>
-      </c>
-      <c r="E94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
+        <v>458</v>
+      </c>
+      <c r="B95" t="s">
+        <v>459</v>
+      </c>
+      <c r="C95" t="s">
+        <v>460</v>
+      </c>
+      <c r="D95" t="s">
+        <v>461</v>
+      </c>
+      <c r="E95" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
         <v>462</v>
       </c>
-      <c r="B95" t="s">
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
         <v>463</v>
-      </c>
-      <c r="C95" t="s">
-        <v>464</v>
-      </c>
-      <c r="D95" t="s">
-        <v>465</v>
-      </c>
-      <c r="E95" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>189</v>
-      </c>
-      <c r="H95" t="s">
-        <v>264</v>
-      </c>
-      <c r="I95" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
+        <v>464</v>
+      </c>
+      <c r="B96" t="s">
+        <v>465</v>
+      </c>
+      <c r="C96" t="s">
+        <v>466</v>
+      </c>
+      <c r="D96" t="s">
         <v>467</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
         <v>468</v>
-      </c>
-      <c r="C96" t="s">
-        <v>469</v>
-      </c>
-      <c r="D96" t="s">
-        <v>469</v>
-      </c>
-      <c r="E96" t="s">
-        <v>117</v>
-      </c>
-      <c r="F96" t="s">
-        <v>470</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s">
-        <v>471</v>
-      </c>
-      <c r="I96" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
+        <v>469</v>
+      </c>
+      <c r="B97" t="s">
+        <v>470</v>
+      </c>
+      <c r="C97" t="s">
+        <v>471</v>
+      </c>
+      <c r="D97" t="s">
+        <v>472</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>190</v>
+      </c>
+      <c r="H97" t="s">
+        <v>268</v>
+      </c>
+      <c r="I97" t="s">
         <v>473</v>
-      </c>
-      <c r="B97" t="s">
-        <v>474</v>
-      </c>
-      <c r="C97" t="s">
-        <v>475</v>
-      </c>
-      <c r="D97" t="s">
-        <v>475</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" t="s">
-        <v>316</v>
-      </c>
-      <c r="I97" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
+        <v>474</v>
+      </c>
+      <c r="B98" t="s">
+        <v>475</v>
+      </c>
+      <c r="C98" t="s">
+        <v>476</v>
+      </c>
+      <c r="D98" t="s">
+        <v>476</v>
+      </c>
+      <c r="E98" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" t="s">
         <v>477</v>
       </c>
-      <c r="B98" t="s">
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s">
         <v>478</v>
       </c>
-      <c r="C98" t="s">
+      <c r="I98" t="s">
         <v>479</v>
-      </c>
-      <c r="D98" t="s">
-        <v>480</v>
-      </c>
-      <c r="E98" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>189</v>
-      </c>
-      <c r="H98" t="s">
-        <v>264</v>
-      </c>
-      <c r="I98" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
+        <v>480</v>
+      </c>
+      <c r="B99" t="s">
+        <v>481</v>
+      </c>
+      <c r="C99" t="s">
         <v>482</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
+        <v>482</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>321</v>
+      </c>
+      <c r="I99" t="s">
         <v>483</v>
-      </c>
-      <c r="C99" t="s">
-        <v>484</v>
-      </c>
-      <c r="D99" t="s">
-        <v>484</v>
-      </c>
-      <c r="E99" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" t="s">
-        <v>485</v>
-      </c>
-      <c r="G99" t="s">
-        <v>189</v>
-      </c>
-      <c r="H99" t="s">
-        <v>264</v>
-      </c>
-      <c r="I99" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
+        <v>484</v>
+      </c>
+      <c r="B100" t="s">
+        <v>485</v>
+      </c>
+      <c r="C100" t="s">
+        <v>486</v>
+      </c>
+      <c r="D100" t="s">
         <v>487</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>190</v>
+      </c>
+      <c r="H100" t="s">
+        <v>268</v>
+      </c>
+      <c r="I100" t="s">
         <v>488</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
         <v>489</v>
       </c>
-      <c r="D100" t="s">
-        <v>489</v>
-      </c>
-      <c r="E100" t="s">
-        <v>159</v>
-      </c>
-      <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="B101" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="C101" t="s">
+        <v>491</v>
+      </c>
+      <c r="D101" t="s">
+        <v>491</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>492</v>
+      </c>
+      <c r="G101" t="s">
+        <v>190</v>
+      </c>
+      <c r="H101" t="s">
+        <v>268</v>
+      </c>
+      <c r="I101" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B102" t="s">
-        <v>491</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
+      </c>
+      <c r="C102" t="s">
+        <v>496</v>
       </c>
       <c r="D102" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E102" t="s">
-        <v>240</v>
-      </c>
-      <c r="F102">
+        <v>160</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>498</v>
+      </c>
+      <c r="B104" t="s">
+        <v>498</v>
+      </c>
+      <c r="C104" t="s">
+        <v>499</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E104" t="s">
+        <v>241</v>
+      </c>
+      <c r="F104">
         <v>13366771103</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>494</v>
-      </c>
-      <c r="C103" t="s">
-        <v>495</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F103">
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>501</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D105" t="s">
+        <v>503</v>
+      </c>
+      <c r="E105" t="s">
+        <v>241</v>
+      </c>
+      <c r="F105">
         <v>15311191358</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
         <v>135</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D106" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E106" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" t="s">
+        <v>505</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>507</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D109" t="s">
+        <v>509</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H109" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" t="s">
+        <v>513</v>
+      </c>
+      <c r="C111" t="s">
+        <v>514</v>
+      </c>
+      <c r="D111" t="s">
+        <v>515</v>
+      </c>
+      <c r="H111" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" t="s">
+        <v>517</v>
+      </c>
+      <c r="C112" t="s">
+        <v>80</v>
+      </c>
+      <c r="D112" t="s">
+        <v>518</v>
+      </c>
+      <c r="E112" t="s">
+        <v>232</v>
+      </c>
+      <c r="H112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" t="s">
+        <v>519</v>
+      </c>
+      <c r="D113" t="s">
+        <v>520</v>
+      </c>
+      <c r="F113">
+        <v>13931829598</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
+        <v>521</v>
+      </c>
+      <c r="C114" t="s">
+        <v>522</v>
+      </c>
+      <c r="D114" t="s">
+        <v>523</v>
+      </c>
+      <c r="F114">
+        <v>18511338513</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" t="s">
+        <v>524</v>
+      </c>
+      <c r="D115" t="s">
+        <v>525</v>
+      </c>
+      <c r="H115" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>527</v>
+      </c>
+      <c r="D116" t="s">
+        <v>528</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H116" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>290</v>
+      </c>
+      <c r="B117"/>
+      <c r="D117" t="s">
+        <v>291</v>
+      </c>
+      <c r="H117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" t="s">
+        <v>529</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>531</v>
+      </c>
+      <c r="D119" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>533</v>
+      </c>
+      <c r="C120" t="s">
+        <v>534</v>
+      </c>
+      <c r="D120" t="s">
+        <v>535</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" t="s">
+        <v>536</v>
+      </c>
+      <c r="C121" t="s">
+        <v>537</v>
+      </c>
+      <c r="D121" t="s">
+        <v>538</v>
+      </c>
+      <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121">
+        <v>15204730136</v>
+      </c>
+      <c r="H121" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" t="s">
+        <v>540</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F122">
+        <v>13363328581</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" t="s">
+        <v>542</v>
+      </c>
+      <c r="C123" t="s">
+        <v>543</v>
+      </c>
+      <c r="D123" t="s">
+        <v>544</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" t="s">
+        <v>545</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" t="s">
+        <v>547</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" t="s">
+        <v>549</v>
+      </c>
+      <c r="C126" t="s">
+        <v>550</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H126" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" t="s">
+        <v>553</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H127" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" t="s">
+        <v>557</v>
+      </c>
+      <c r="C128" t="s">
+        <v>558</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G128" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" t="s">
+        <v>501</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D129" t="s">
+        <v>503</v>
+      </c>
+      <c r="F129">
+        <v>15311191358</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J129">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/wcht.xlsx
+++ b/wcht.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="561">
   <si>
     <t>微信号</t>
   </si>
@@ -451,6 +451,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>衣服店</t>
     </r>
     <r>
@@ -693,6 +698,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>郭俊</t>
     </r>
     <r>
@@ -794,6 +804,9 @@
     <t>wxid_5igxas8y37pq22-湖城婚恋 魂钱</t>
   </si>
   <si>
+    <t>湖城婚恋成就天下姻缘线上服务+线下实体服务</t>
+  </si>
+  <si>
     <t>wxid_49btcch5d5ad22</t>
   </si>
   <si>
@@ -942,6 +955,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>刘永山</t>
     </r>
     <r>
@@ -1779,6 +1797,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>瑞琪</t>
     </r>
     <r>
@@ -3002,12 +3025,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -3018,6 +3041,7 @@
     <col min="5" max="5" width="10.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="11.5454545454545" customWidth="1"/>
     <col min="9" max="9" width="8.72727272727273" customWidth="1"/>
+    <col min="10" max="10" width="31.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3279,7 +3303,6 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>16</v>
       </c>
@@ -4163,7 +4186,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -4191,19 +4214,22 @@
       <c r="I41" t="s">
         <v>223</v>
       </c>
+      <c r="K41" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -4215,27 +4241,27 @@
         <v>95</v>
       </c>
       <c r="H42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -4247,27 +4273,27 @@
         <v>191</v>
       </c>
       <c r="I43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G44" t="s">
         <v>190</v>
@@ -4276,24 +4302,24 @@
         <v>191</v>
       </c>
       <c r="I44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -4305,24 +4331,24 @@
         <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -4334,35 +4360,35 @@
         <v>191</v>
       </c>
       <c r="I46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>191</v>
@@ -4370,16 +4396,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -4391,24 +4417,24 @@
         <v>190</v>
       </c>
       <c r="H49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -4423,21 +4449,21 @@
         <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
@@ -4449,24 +4475,24 @@
         <v>190</v>
       </c>
       <c r="H51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -4481,21 +4507,21 @@
         <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E53" t="s">
         <v>16</v>
@@ -4504,27 +4530,27 @@
         <v>16</v>
       </c>
       <c r="G53" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H53" t="s">
         <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
@@ -4539,21 +4565,21 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -4568,21 +4594,21 @@
         <v>208</v>
       </c>
       <c r="I55" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E56" t="s">
         <v>55</v>
@@ -4597,21 +4623,21 @@
         <v>208</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E57" t="s">
         <v>16</v>
@@ -4626,21 +4652,21 @@
         <v>45</v>
       </c>
       <c r="I57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E58" t="s">
         <v>93</v>
@@ -4655,21 +4681,21 @@
         <v>96</v>
       </c>
       <c r="I58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E59" t="s">
         <v>188</v>
@@ -4684,21 +4710,21 @@
         <v>191</v>
       </c>
       <c r="I59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E60" t="s">
         <v>55</v>
@@ -4713,21 +4739,21 @@
         <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E61" t="s">
         <v>188</v>
@@ -4742,21 +4768,21 @@
         <v>191</v>
       </c>
       <c r="I61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -4768,24 +4794,24 @@
         <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I62" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -4800,21 +4826,21 @@
         <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E64" t="s">
         <v>16</v>
@@ -4826,24 +4852,24 @@
         <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I64" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E65" t="s">
         <v>55</v>
@@ -4858,21 +4884,21 @@
         <v>208</v>
       </c>
       <c r="I65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -4887,21 +4913,21 @@
         <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
@@ -4916,21 +4942,21 @@
         <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
         <v>117</v>
@@ -4945,21 +4971,21 @@
         <v>82</v>
       </c>
       <c r="I68" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -4974,21 +5000,21 @@
         <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
@@ -5003,50 +5029,50 @@
         <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D72" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
@@ -5058,24 +5084,24 @@
         <v>190</v>
       </c>
       <c r="H72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I72" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D73" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
@@ -5090,21 +5116,21 @@
         <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D74" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E74" t="s">
         <v>117</v>
@@ -5119,21 +5145,21 @@
         <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E75" t="s">
         <v>117</v>
@@ -5148,21 +5174,21 @@
         <v>66</v>
       </c>
       <c r="I75" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C76" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D76" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -5174,27 +5200,27 @@
         <v>102</v>
       </c>
       <c r="H76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D77" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
@@ -5206,21 +5232,21 @@
         <v>45</v>
       </c>
       <c r="I77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C78" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D78" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E78" t="s">
         <v>16</v>
@@ -5235,21 +5261,21 @@
         <v>16</v>
       </c>
       <c r="I78" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C79" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D79" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E79" t="s">
         <v>16</v>
@@ -5264,21 +5290,21 @@
         <v>208</v>
       </c>
       <c r="I79" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D80" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E80" t="s">
         <v>55</v>
@@ -5293,50 +5319,50 @@
         <v>208</v>
       </c>
       <c r="I80" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B81" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E81" t="s">
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G81" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I81" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B82" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C82" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E82" t="s">
         <v>16</v>
@@ -5351,21 +5377,21 @@
         <v>208</v>
       </c>
       <c r="I82" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B83" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
@@ -5380,21 +5406,21 @@
         <v>208</v>
       </c>
       <c r="I83" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B84" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C84" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
@@ -5403,27 +5429,27 @@
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H84" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D85" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E85" t="s">
         <v>16</v>
@@ -5438,67 +5464,67 @@
         <v>66</v>
       </c>
       <c r="I85" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F86">
         <v>15269633693</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D87" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F87" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G87" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H87" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I87" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B88" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C88" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D88" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E88" t="s">
         <v>16</v>
@@ -5513,21 +5539,21 @@
         <v>208</v>
       </c>
       <c r="I88" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C89" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D89" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
@@ -5542,21 +5568,21 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B90" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C90" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D90" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -5571,21 +5597,21 @@
         <v>16</v>
       </c>
       <c r="I90" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C91" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D91" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E91" t="s">
         <v>197</v>
@@ -5600,27 +5626,27 @@
         <v>197</v>
       </c>
       <c r="I91" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B92" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C92" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D92" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E92" t="s">
         <v>117</v>
       </c>
       <c r="F92" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -5629,24 +5655,21 @@
         <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B93" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C93" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D93" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E93" t="s">
         <v>16</v>
@@ -5661,21 +5684,21 @@
         <v>208</v>
       </c>
       <c r="I93" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B94" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C94" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D94" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E94" t="s">
         <v>16</v>
@@ -5690,21 +5713,21 @@
         <v>191</v>
       </c>
       <c r="I94" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B95" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C95" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D95" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E95" t="s">
         <v>197</v>
@@ -5713,27 +5736,27 @@
         <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H95" t="s">
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B96" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D96" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E96" t="s">
         <v>16</v>
@@ -5748,21 +5771,21 @@
         <v>16</v>
       </c>
       <c r="I96" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B97" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C97" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D97" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -5774,53 +5797,53 @@
         <v>190</v>
       </c>
       <c r="H97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B98" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C98" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D98" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E98" t="s">
         <v>117</v>
       </c>
       <c r="F98" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G98" t="s">
         <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I98" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B99" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C99" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D99" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E99" t="s">
         <v>16</v>
@@ -5832,24 +5855,24 @@
         <v>22</v>
       </c>
       <c r="H99" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I99" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B100" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C100" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D100" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
@@ -5861,53 +5884,53 @@
         <v>190</v>
       </c>
       <c r="H100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I100" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B101" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C101" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D101" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G101" t="s">
         <v>190</v>
       </c>
       <c r="H101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I101" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B102" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C102" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D102" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E102" t="s">
         <v>160</v>
@@ -5922,24 +5945,24 @@
         <v>16</v>
       </c>
       <c r="I102" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B104" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C104" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F104">
         <v>13366771103</v>
@@ -5947,16 +5970,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D105" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F105">
         <v>15311191358</v>
@@ -5970,10 +5993,10 @@
         <v>136</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5987,7 +6010,7 @@
         <v>146</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5995,27 +6018,27 @@
         <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D109" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H109" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="110" spans="2:8">
@@ -6026,41 +6049,41 @@
         <v>44</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="111" spans="2:8">
       <c r="B111" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C111" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D111" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H111" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="2:8">
       <c r="B112" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C112" t="s">
         <v>80</v>
       </c>
       <c r="D112" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H112" t="s">
         <v>191</v>
@@ -6068,10 +6091,10 @@
     </row>
     <row r="113" spans="2:8">
       <c r="B113" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D113" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F113">
         <v>13931829598</v>
@@ -6082,13 +6105,13 @@
     </row>
     <row r="114" spans="2:6">
       <c r="B114" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C114" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D114" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F114">
         <v>18511338513</v>
@@ -6096,21 +6119,21 @@
     </row>
     <row r="115" spans="2:8">
       <c r="B115" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D115" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H115" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D116" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>188</v>
@@ -6121,11 +6144,10 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>290</v>
-      </c>
-      <c r="B117"/>
+        <v>291</v>
+      </c>
       <c r="D117" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H117" t="s">
         <v>45</v>
@@ -6133,10 +6155,10 @@
     </row>
     <row r="118" spans="2:8">
       <c r="B118" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>93</v>
@@ -6144,55 +6166,55 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D119" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C120" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D120" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C121" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D121" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F121">
         <v>15204730136</v>
       </c>
       <c r="H121" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="2:8">
       <c r="B122" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F122">
         <v>13363328581</v>
@@ -6203,16 +6225,16 @@
     </row>
     <row r="123" spans="2:8">
       <c r="B123" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C123" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D123" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>191</v>
@@ -6220,24 +6242,24 @@
     </row>
     <row r="124" spans="2:5">
       <c r="B124" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>191</v>
@@ -6245,58 +6267,58 @@
     </row>
     <row r="126" spans="2:8">
       <c r="B126" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C126" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H126" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H127" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C128" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G128" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D129" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F129">
         <v>15311191358</v>
@@ -6304,6 +6326,9 @@
       <c r="G129" s="1" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J129">

--- a/wcht.xlsx
+++ b/wcht.xlsx
@@ -1223,7 +1223,7 @@
     <t>陶晴贤</t>
   </si>
   <si>
-    <t>陶晴贤 刘永山亲戚</t>
+    <t>刘永山亲戚</t>
   </si>
   <si>
     <t>唐山</t>
@@ -3027,10 +3027,10 @@
   <sheetPr/>
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5071,7 +5071,7 @@
       <c r="C72" t="s">
         <v>355</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E72" t="s">
@@ -5739,7 +5739,7 @@
         <v>463</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="I95" t="s">
         <v>464</v>
